--- a/SWP4/PartWorth.xlsx
+++ b/SWP4/PartWorth.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raviky/Documents/GitHub/CACI/SWP4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radoslav Evtimov\Documents\GitHub\CACI\CACI\SWP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A27543-FDD3-6443-831C-77F89AE9BEA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9174E93-E8D0-4F13-8746-C948DCEAA2EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -100,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,31 +119,286 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="DejaVu Sans"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -150,14 +406,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,303 +751,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558000EC-1A20-3A40-83F1-887AB2A2E4F4}">
-  <dimension ref="B3:G23"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="10.09765625" customWidth="1"/>
+    <col min="3" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
+    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>-5.2939642999999998</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="17">
         <v>-3.105315</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <f>-C5</f>
         <v>3.105315</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="19">
         <f>E5/$E$23</f>
         <v>0.47768402771726148</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="2" t="s">
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="2:7" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
         <f>-SUM($C$7:$C$11)/5</f>
         <v>-0.18675179999999997</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="18">
         <f>MAX(C7:C11)-MIN(C7:C11)</f>
         <v>1.3356604999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="19">
         <f>E7/$E$23</f>
         <v>0.20546182506536415</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="17">
         <v>0.30152000000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="18">
         <f>C8+$D$7</f>
         <v>0.11476820000000004</v>
       </c>
-      <c r="G8" s="5">
+      <c r="E8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="22">
         <f>(C8/$C$5)*100</f>
         <v>-9.7098039973400443</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="17">
         <v>0.51797789999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="18">
         <f t="shared" ref="D9:D11" si="0">C9+$D$7</f>
         <v>0.33122610000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="22">
         <f t="shared" ref="G9:G11" si="1">(C9/$C$5)*100</f>
         <v>-16.680365759995361</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="17">
         <v>0.72496079999999996</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="18">
         <f t="shared" si="0"/>
         <v>0.53820899999999994</v>
       </c>
-      <c r="G10" s="5">
+      <c r="E10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>-23.345805497992956</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="17">
         <v>-0.61069969999999996</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="18">
         <f t="shared" si="0"/>
         <v>-0.79745149999999998</v>
       </c>
-      <c r="G11" s="5">
+      <c r="E11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="22">
         <f t="shared" si="1"/>
         <v>19.666272181727134</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="2:7" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
         <f>-SUM($C$13:$C$16)/4</f>
         <v>-1.3554441749999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="18">
         <f>MAX(C13:C16)-MIN(C13:C16)</f>
         <v>1.5388378</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="19">
         <f>E13/$E$23</f>
         <v>0.23671615868521217</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="2" t="s">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="17">
         <v>0.99587119999999996</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="18">
         <f>C14+$D$13</f>
         <v>-0.35957297499999996</v>
       </c>
-      <c r="G14" s="5">
+      <c r="E14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="22">
         <f>(C14/$C$5)*100</f>
         <v>-32.069893070429245</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="17">
         <v>1.8911964999999999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="2">C15+$D$13</f>
         <v>0.53575232500000003</v>
       </c>
-      <c r="G15" s="5">
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="22">
         <f t="shared" ref="G15:G16" si="3">(C15/$C$5)*100</f>
         <v>-60.901921383176905</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="17">
         <v>2.5347089999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="18">
         <f t="shared" si="2"/>
         <v>1.179264825</v>
       </c>
-      <c r="G16" s="5">
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="22">
         <f t="shared" si="3"/>
         <v>-81.624859313789415</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2" t="s">
+    <row r="17" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18">
         <f>-SUM($C$18:$C$21)/4</f>
         <v>0.35765279999999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="18">
         <f>MAX(C18:C21)-MIN(C18:C21)</f>
         <v>0.52095879999999994</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="19">
         <f>E18/$E$23</f>
         <v>8.0137988532162197E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="2" t="s">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="17">
         <v>-0.23564370000000001</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="18">
         <f>C19+$D$18</f>
         <v>0.12200909999999998</v>
       </c>
-      <c r="G19" s="5">
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="22">
         <f t="shared" ref="G19:G21" si="4">(C19/$C$5)*100</f>
         <v>7.5883992445210877</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="17">
         <v>-0.438365</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="18">
         <f t="shared" ref="D20:D21" si="5">C20+$D$18</f>
         <v>-8.0712200000000012E-2</v>
       </c>
-      <c r="G20" s="5">
+      <c r="E20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="22">
         <f t="shared" si="4"/>
         <v>14.11660330755495</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="17">
         <v>-0.75660249999999996</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="18">
         <f t="shared" si="5"/>
         <v>-0.39894969999999996</v>
       </c>
-      <c r="G21" s="5">
+      <c r="E21" s="21"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="22">
         <f t="shared" si="4"/>
         <v>24.364758486659159</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="2" t="s">
+    <row r="22" spans="2:7" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26">
         <f>SUM(E4:E21)</f>
         <v>6.5007720999999998</v>
       </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SWP4/PartWorth.xlsx
+++ b/SWP4/PartWorth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radoslav Evtimov\Documents\GitHub\CACI\CACI\SWP4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raviky/Documents/GitHub/CACI/SWP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9174E93-E8D0-4F13-8746-C948DCEAA2EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724237C7-CA12-0F46-A800-8807FA0AE5C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,9 +41,6 @@
     <t>battery14h</t>
   </si>
   <si>
-    <t>battery16h</t>
-  </si>
-  <si>
     <t>battery8h</t>
   </si>
   <si>
@@ -75,9 +71,6 @@
     <t>Parth Worth</t>
   </si>
   <si>
-    <t>Battery10h</t>
-  </si>
-  <si>
     <t>sound3.5s</t>
   </si>
   <si>
@@ -94,6 +87,12 @@
   </si>
   <si>
     <t>WTP in Euro</t>
+  </si>
+  <si>
+    <t>Battery16h</t>
+  </si>
+  <si>
+    <t>battery10h</t>
   </si>
 </sst>
 </file>
@@ -754,67 +753,67 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
     <col min="3" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.69921875" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="12">
-        <v>-5.2939642999999998</v>
+        <v>-5.0651299999999999</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="17">
-        <v>-3.105315</v>
+        <v>-3.0582780000000001</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18">
         <f>-C5</f>
-        <v>3.105315</v>
+        <v>3.0582780000000001</v>
       </c>
       <c r="F5" s="19">
         <f>E5/$E$23</f>
-        <v>0.47768402771726148</v>
+        <v>0.47273554674439555</v>
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="2:7" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="4.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
@@ -822,98 +821,98 @@
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18">
         <f>-SUM($C$7:$C$11)/5</f>
-        <v>-0.18675179999999997</v>
+        <v>0.52865799999999996</v>
       </c>
       <c r="E7" s="18">
         <f>MAX(C7:C11)-MIN(C7:C11)</f>
-        <v>1.3356604999999999</v>
+        <v>1.1156709999999999</v>
       </c>
       <c r="F7" s="19">
         <f>E7/$E$23</f>
-        <v>0.20546182506536415</v>
+        <v>0.17245565647461297</v>
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>0.30152000000000001</v>
+        <v>-1.316476</v>
       </c>
       <c r="D8" s="18">
         <f>C8+$D$7</f>
-        <v>0.11476820000000004</v>
+        <v>-0.78781800000000002</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="19"/>
       <c r="G8" s="22">
         <f>(C8/$C$5)*100</f>
-        <v>-9.7098039973400443</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43.046315606364104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C9" s="17">
-        <v>0.51797789999999999</v>
+        <v>-0.70699699999999999</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ref="D9:D11" si="0">C9+$D$7</f>
-        <v>0.33122610000000002</v>
+        <v>-0.17833900000000003</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="19"/>
       <c r="G9" s="22">
         <f t="shared" ref="G9:G11" si="1">(C9/$C$5)*100</f>
-        <v>-16.680365759995361</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23.117486376320269</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="17">
-        <v>0.72496079999999996</v>
+        <v>-0.419012</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>0.53820899999999994</v>
+        <v>0.10964599999999997</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="19"/>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>-23.345805497992956</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13.700912735859852</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="17">
-        <v>-0.61069969999999996</v>
+        <v>-0.20080500000000001</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
-        <v>-0.79745149999999998</v>
+        <v>0.32785299999999995</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="19"/>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>19.666272181727134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.5659498580573779</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="4.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -921,80 +920,80 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f>-SUM($C$13:$C$16)/4</f>
-        <v>-1.3554441749999999</v>
+        <v>1.1605847500000002</v>
       </c>
       <c r="E13" s="18">
         <f>MAX(C13:C16)-MIN(C13:C16)</f>
-        <v>1.5388378</v>
+        <v>1.8629420000000001</v>
       </c>
       <c r="F13" s="19">
         <f>E13/$E$23</f>
-        <v>0.23671615868521217</v>
+        <v>0.28796561493856926</v>
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="17">
-        <v>0.99587119999999996</v>
+        <v>-2.4945460000000002</v>
       </c>
       <c r="D14" s="18">
         <f>C14+$D$13</f>
-        <v>-0.35957297499999996</v>
+        <v>-1.33396125</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
       <c r="G14" s="22">
         <f>(C14/$C$5)*100</f>
-        <v>-32.069893070429245</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81.567012547583971</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="17">
-        <v>1.8911964999999999</v>
+        <v>-1.516189</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="2">C15+$D$13</f>
-        <v>0.53575232500000003</v>
+        <v>-0.35560424999999984</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="19"/>
       <c r="G15" s="22">
         <f t="shared" ref="G15:G16" si="3">(C15/$C$5)*100</f>
-        <v>-60.901921383176905</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49.576559096328069</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="17">
-        <v>2.5347089999999999</v>
+        <v>-0.63160400000000005</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="2"/>
-        <v>1.179264825</v>
+        <v>0.52898075000000011</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22">
         <f t="shared" si="3"/>
-        <v>-81.624859313789415</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20.652275561606892</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -1002,80 +1001,80 @@
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f>-SUM($C$18:$C$21)/4</f>
-        <v>0.35765279999999999</v>
+        <v>-0.39258275000000004</v>
       </c>
       <c r="E18" s="18">
         <f>MAX(C18:C21)-MIN(C18:C21)</f>
-        <v>0.52095879999999994</v>
+        <v>0.43242999999999998</v>
       </c>
       <c r="F18" s="19">
         <f>E18/$E$23</f>
-        <v>8.0137988532162197E-2</v>
+        <v>6.6843181842422092E-2</v>
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="17">
-        <v>-0.23564370000000001</v>
+        <v>0.74465199999999998</v>
       </c>
       <c r="D19" s="18">
         <f>C19+$D$18</f>
-        <v>0.12200909999999998</v>
+        <v>0.35206924999999994</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
       <c r="G19" s="22">
         <f t="shared" ref="G19:G21" si="4">(C19/$C$5)*100</f>
-        <v>7.5883992445210877</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-24.34873481089685</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="17">
-        <v>-0.438365</v>
+        <v>0.51345700000000005</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ref="D20:D21" si="5">C20+$D$18</f>
-        <v>-8.0712200000000012E-2</v>
+        <v>0.12087425000000002</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="19"/>
       <c r="G20" s="22">
         <f t="shared" si="4"/>
-        <v>14.11660330755495</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-16.789088500129811</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="17">
-        <v>-0.75660249999999996</v>
+        <v>0.312222</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="5"/>
-        <v>-0.39894969999999996</v>
+        <v>-8.0360750000000036E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="19"/>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>24.364758486659159</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-10.20907844218217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="23"/>
       <c r="D22" s="21"/>
@@ -1083,15 +1082,15 @@
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="2:7" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26">
         <f>SUM(E4:E21)</f>
-        <v>6.5007720999999998</v>
+        <v>6.4693210000000008</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>

--- a/SWP4/PartWorth.xlsx
+++ b/SWP4/PartWorth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raviky/Documents/GitHub/CACI/SWP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724237C7-CA12-0F46-A800-8807FA0AE5C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE0292-4CBA-7A45-AFF4-7DA09E557297}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
   </bookViews>
@@ -102,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +147,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="DejaVu Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -405,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -435,6 +446,8 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,22 +763,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558000EC-1A20-3A40-83F1-887AB2A2E4F4}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="17" thickBot="1"/>
+    <row r="3" spans="2:7" ht="16.25" customHeight="1" thickBot="1">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -783,37 +798,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="13.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="12">
-        <v>-5.0651299999999999</v>
+        <v>-5.2939642999999998</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="17">
-        <v>-3.0582780000000001</v>
+        <v>-3.105315</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18">
         <f>-C5</f>
-        <v>3.0582780000000001</v>
+        <v>3.105315</v>
       </c>
       <c r="F5" s="19">
         <f>E5/$E$23</f>
-        <v>0.47273554674439555</v>
+        <v>0.47311481993134002</v>
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="2:7" ht="4.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="4.25" customHeight="1">
       <c r="B6" s="4"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
@@ -821,98 +836,98 @@
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="13.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18">
         <f>-SUM($C$7:$C$11)/5</f>
-        <v>0.52865799999999996</v>
+        <v>0.53820899999999994</v>
       </c>
       <c r="E7" s="18">
         <f>MAX(C7:C11)-MIN(C7:C11)</f>
-        <v>1.1156709999999999</v>
+        <v>1.1286775999999998</v>
       </c>
       <c r="F7" s="19">
         <f>E7/$E$23</f>
-        <v>0.17245565647461297</v>
+        <v>0.17196133064907648</v>
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="13.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>-1.316476</v>
+        <v>-1.3356604999999999</v>
       </c>
       <c r="D8" s="18">
         <f>C8+$D$7</f>
-        <v>-0.78781800000000002</v>
+        <v>-0.79745149999999998</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="19"/>
       <c r="G8" s="22">
         <f>(C8/$C$5)*100</f>
-        <v>43.046315606364104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.012077679720093</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="13.75" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="17">
-        <v>-0.70699699999999999</v>
+        <v>-0.72496079999999996</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ref="D9:D11" si="0">C9+$D$7</f>
-        <v>-0.17833900000000003</v>
+        <v>-0.18675180000000002</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="19"/>
       <c r="G9" s="22">
         <f t="shared" ref="G9:G11" si="1">(C9/$C$5)*100</f>
-        <v>23.117486376320269</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23.345805497992956</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="13.75" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="17">
-        <v>-0.419012</v>
+        <v>-0.42344080000000001</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>0.10964599999999997</v>
+        <v>0.11476819999999993</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="19"/>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
-        <v>13.700912735859852</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13.636001500652913</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="13.75" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="17">
-        <v>-0.20080500000000001</v>
+        <v>-0.2069829</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
-        <v>0.32785299999999995</v>
+        <v>0.33122609999999997</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="19"/>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
-        <v>6.5659498580573779</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="4.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.6654397379975947</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="4.25" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -920,80 +935,80 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="13.75" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f>-SUM($C$13:$C$16)/4</f>
-        <v>1.1605847500000002</v>
+        <v>1.1792647000000001</v>
       </c>
       <c r="E13" s="18">
         <f>MAX(C13:C16)-MIN(C13:C16)</f>
-        <v>1.8629420000000001</v>
+        <v>1.891197</v>
       </c>
       <c r="F13" s="19">
         <f>E13/$E$23</f>
-        <v>0.28796561493856926</v>
+        <v>0.2881360918649768</v>
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="13.75" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="17">
-        <v>-2.4945460000000002</v>
+        <v>-2.5347089999999999</v>
       </c>
       <c r="D14" s="18">
         <f>C14+$D$13</f>
-        <v>-1.33396125</v>
+        <v>-1.3554442999999998</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
       <c r="G14" s="22">
         <f>(C14/$C$5)*100</f>
-        <v>81.567012547583971</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81.624859313789415</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="13.75" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="17">
-        <v>-1.516189</v>
+        <v>-1.5388378</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="2">C15+$D$13</f>
-        <v>-0.35560424999999984</v>
+        <v>-0.35957309999999998</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="19"/>
       <c r="G15" s="22">
         <f t="shared" ref="G15:G16" si="3">(C15/$C$5)*100</f>
-        <v>49.576559096328069</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49.554966243360177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="13.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="17">
-        <v>-0.63160400000000005</v>
+        <v>-0.64351199999999997</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="2"/>
-        <v>0.52898075000000011</v>
+        <v>0.53575270000000008</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22">
         <f t="shared" si="3"/>
-        <v>20.652275561606892</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20.722921829186411</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="3" customHeight="1">
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -1001,80 +1016,80 @@
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="13.75" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f>-SUM($C$18:$C$21)/4</f>
-        <v>-0.39258275000000004</v>
+        <v>-0.398949675</v>
       </c>
       <c r="E18" s="18">
         <f>MAX(C18:C21)-MIN(C18:C21)</f>
-        <v>0.43242999999999998</v>
+        <v>0.43836509999999995</v>
       </c>
       <c r="F18" s="19">
         <f>E18/$E$23</f>
-        <v>6.6843181842422092E-2</v>
+        <v>6.6787757554606808E-2</v>
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="13.75" customHeight="1">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="17">
-        <v>0.74465199999999998</v>
+        <v>0.75660249999999996</v>
       </c>
       <c r="D19" s="18">
         <f>C19+$D$18</f>
-        <v>0.35206924999999994</v>
+        <v>0.35765282499999995</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
       <c r="G19" s="22">
         <f t="shared" ref="G19:G21" si="4">(C19/$C$5)*100</f>
-        <v>-24.34873481089685</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-24.364758486659159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="13.75" customHeight="1">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="17">
-        <v>0.51345700000000005</v>
+        <v>0.52095880000000006</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ref="D20:D21" si="5">C20+$D$18</f>
-        <v>0.12087425000000002</v>
+        <v>0.12200912500000005</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="19"/>
       <c r="G20" s="22">
         <f t="shared" si="4"/>
-        <v>-16.789088500129811</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-16.776359242138078</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="13.75" customHeight="1">
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="17">
-        <v>0.312222</v>
+        <v>0.3182374</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="5"/>
-        <v>-8.0360750000000036E-2</v>
+        <v>-8.0712275E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="19"/>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>-10.20907844218217</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-10.248151958818992</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="3.5" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="23"/>
       <c r="D22" s="21"/>
@@ -1082,7 +1097,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="2:7" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="13.75" customHeight="1" thickBot="1">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1090,10 +1105,58 @@
       <c r="D23" s="25"/>
       <c r="E23" s="26">
         <f>SUM(E4:E21)</f>
-        <v>6.4693210000000008</v>
+        <v>6.5635546999999992</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="7:8">
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="7:8">
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWP4/PartWorth.xlsx
+++ b/SWP4/PartWorth.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raviky/Documents/GitHub/CACI/SWP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE0292-4CBA-7A45-AFF4-7DA09E557297}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAB88C-2C22-5A48-A001-07CAE7283AC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>price</t>
   </si>
@@ -93,6 +94,21 @@
   </si>
   <si>
     <t>battery10h</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Cluster1</t>
+  </si>
+  <si>
+    <t>Cluster2</t>
+  </si>
+  <si>
+    <t>Cluster3</t>
+  </si>
+  <si>
+    <t>Cluster4</t>
   </si>
 </sst>
 </file>
@@ -416,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -448,6 +464,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,24 +780,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558000EC-1A20-3A40-83F1-887AB2A2E4F4}">
-  <dimension ref="B2:H40"/>
+  <dimension ref="B2:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17" thickBot="1"/>
-    <row r="3" spans="2:7" ht="16.25" customHeight="1" thickBot="1">
+    <row r="2" spans="2:14" ht="17" thickBot="1">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="16.25" customHeight="1" thickBot="1">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -797,307 +839,553 @@
       <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="13.75" customHeight="1">
+      <c r="I3" s="7"/>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="13.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="12">
-        <v>-5.2939642999999998</v>
+        <v>-4.3598210000000002</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" ht="13.75" customHeight="1">
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="12">
+        <v>-5.2939642999999998</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" ht="13.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="17">
-        <v>-3.105315</v>
+        <v>-2.7705579</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18">
         <f>-C5</f>
-        <v>3.105315</v>
+        <v>2.7705579</v>
       </c>
       <c r="F5" s="19">
         <f>E5/$E$23</f>
+        <v>0.45837760253521442</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="I5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>-3.105315</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <v>3.105315</v>
+      </c>
+      <c r="M5" s="19">
         <v>0.47311481993134002</v>
       </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:7" ht="4.25" customHeight="1">
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="2:14" ht="4.25" customHeight="1">
       <c r="B6" s="4"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="21"/>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="2:7" ht="13.75" customHeight="1">
+      <c r="I6" s="4"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="2:14" ht="13.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18">
         <f>-SUM($C$7:$C$11)/5</f>
-        <v>0.53820899999999994</v>
+        <v>0.54251221999999999</v>
       </c>
       <c r="E7" s="18">
         <f>MAX(C7:C11)-MIN(C7:C11)</f>
-        <v>1.1286775999999998</v>
+        <v>1.0935269000000001</v>
       </c>
       <c r="F7" s="19">
         <f>E7/$E$23</f>
+        <v>0.18091960421753508</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18">
+        <v>0.53820899999999994</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1.1286775999999998</v>
+      </c>
+      <c r="M7" s="19">
         <v>0.17196133064907648</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:7" ht="13.75" customHeight="1">
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="2:14" ht="13.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>-1.3356604999999999</v>
+        <v>-1.3719937</v>
       </c>
       <c r="D8" s="18">
         <f>C8+$D$7</f>
-        <v>-0.79745149999999998</v>
+        <v>-0.82948147999999999</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="19"/>
       <c r="G8" s="22">
         <f>(C8/$C$5)*100</f>
+        <v>49.520484664839529</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="17">
+        <v>-1.3356604999999999</v>
+      </c>
+      <c r="K8" s="18">
+        <v>-0.79745149999999998</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="22">
         <v>43.012077679720093</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="13.75" customHeight="1">
+    <row r="9" spans="2:14" ht="13.75" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="17">
-        <v>-0.72496079999999996</v>
+        <v>-0.74848930000000002</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" ref="D9:D11" si="0">C9+$D$7</f>
-        <v>-0.18675180000000002</v>
+        <v>-0.20597708000000003</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="19"/>
       <c r="G9" s="22">
         <f t="shared" ref="G9:G11" si="1">(C9/$C$5)*100</f>
+        <v>27.015833164865459</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="17">
+        <v>-0.72496079999999996</v>
+      </c>
+      <c r="K9" s="18">
+        <v>-0.18675180000000002</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="22">
         <v>23.345805497992956</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="13.75" customHeight="1">
+    <row r="10" spans="2:14" ht="13.75" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="17">
-        <v>-0.42344080000000001</v>
+        <v>-0.31361129999999998</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>0.11476819999999993</v>
+        <v>0.22890092000000001</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="19"/>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
+        <v>11.319427758575266</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>-0.42344080000000001</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.11476819999999993</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="22">
         <v>13.636001500652913</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="13.75" customHeight="1">
+    <row r="11" spans="2:14" ht="13.75" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="17">
-        <v>-0.2069829</v>
+        <v>-0.27846680000000001</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
-        <v>0.33122609999999997</v>
+        <v>0.26404541999999998</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="19"/>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
+        <v>10.050928731718619</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17">
+        <v>-0.2069829</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.33122609999999997</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="22">
         <v>6.6654397379975947</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="4.25" customHeight="1">
+    <row r="12" spans="2:14" ht="4.25" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="2:7" ht="13.75" customHeight="1">
+      <c r="I12" s="4"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.75" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f>-SUM($C$13:$C$16)/4</f>
-        <v>1.1792647000000001</v>
+        <v>0.92862567500000004</v>
       </c>
       <c r="E13" s="18">
         <f>MAX(C13:C16)-MIN(C13:C16)</f>
-        <v>1.891197</v>
+        <v>1.6697716000000002</v>
       </c>
       <c r="F13" s="19">
         <f>E13/$E$23</f>
+        <v>0.27625695993914767</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="I13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18">
+        <v>1.1792647000000001</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1.891197</v>
+      </c>
+      <c r="M13" s="19">
         <v>0.2881360918649768</v>
       </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:7" ht="13.75" customHeight="1">
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="2:14" ht="13.75" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="17">
-        <v>-2.5347089999999999</v>
+        <v>-2.0580516000000002</v>
       </c>
       <c r="D14" s="18">
         <f>C14+$D$13</f>
-        <v>-1.3554442999999998</v>
+        <v>-1.1294259250000001</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
       <c r="G14" s="22">
         <f>(C14/$C$5)*100</f>
+        <v>74.282930524570517</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="17">
+        <v>-2.5347089999999999</v>
+      </c>
+      <c r="K14" s="18">
+        <v>-1.3554442999999998</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="22">
         <v>81.624859313789415</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="13.75" customHeight="1">
+    <row r="15" spans="2:14" ht="13.75" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="17">
-        <v>-1.5388378</v>
+        <v>-1.2681711</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" ref="D15:D16" si="2">C15+$D$13</f>
-        <v>-0.35957309999999998</v>
+        <v>-0.33954542499999996</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="19"/>
       <c r="G15" s="22">
         <f t="shared" ref="G15:G16" si="3">(C15/$C$5)*100</f>
+        <v>45.773131108359081</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="17">
+        <v>-1.5388378</v>
+      </c>
+      <c r="K15" s="18">
+        <v>-0.35957309999999998</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="22">
         <v>49.554966243360177</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="13.75" customHeight="1">
+    <row r="16" spans="2:14" ht="13.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="17">
-        <v>-0.64351199999999997</v>
+        <v>-0.38828000000000001</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="2"/>
-        <v>0.53575270000000008</v>
+        <v>0.54034567499999997</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="19"/>
       <c r="G16" s="22">
         <f t="shared" si="3"/>
+        <v>14.014505887063397</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="17">
+        <v>-0.64351199999999997</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0.53575270000000008</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="22">
         <v>20.722921829186411</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="3" customHeight="1">
+    <row r="17" spans="2:29" ht="3" customHeight="1">
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="21"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:8" ht="13.75" customHeight="1">
+      <c r="I17" s="4"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="2:29" ht="13.75" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f>-SUM($C$18:$C$21)/4</f>
-        <v>-0.398949675</v>
+        <v>-0.46518759999999998</v>
       </c>
       <c r="E18" s="18">
         <f>MAX(C18:C21)-MIN(C18:C21)</f>
-        <v>0.43836509999999995</v>
+        <v>0.51041340000000002</v>
       </c>
       <c r="F18" s="19">
         <f>E18/$E$23</f>
+        <v>8.4445833308102819E-2</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18">
+        <v>-0.398949675</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0.43836509999999995</v>
+      </c>
+      <c r="M18" s="19">
         <v>6.6787757554606808E-2</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:8" ht="13.75" customHeight="1">
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="2:29" ht="13.75" customHeight="1">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="17">
-        <v>0.75660249999999996</v>
+        <v>0.92234499999999997</v>
       </c>
       <c r="D19" s="18">
         <f>C19+$D$18</f>
-        <v>0.35765282499999995</v>
+        <v>0.45715739999999999</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
       <c r="G19" s="22">
         <f t="shared" ref="G19:G21" si="4">(C19/$C$5)*100</f>
+        <v>-33.290948368196887</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.75660249999999996</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0.35765282499999995</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="22">
         <v>-24.364758486659159</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="13.75" customHeight="1">
+    <row r="20" spans="2:29" ht="13.75" customHeight="1">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="17">
-        <v>0.52095880000000006</v>
+        <v>0.52647379999999999</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ref="D20:D21" si="5">C20+$D$18</f>
-        <v>0.12200912500000005</v>
+        <v>6.1286200000000013E-2</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="19"/>
       <c r="G20" s="22">
         <f t="shared" si="4"/>
+        <v>-19.002447124458218</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0.52095880000000006</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0.12200912500000005</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="22">
         <v>-16.776359242138078</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="13.75" customHeight="1">
+    <row r="21" spans="2:29" ht="13.75" customHeight="1">
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="17">
-        <v>0.3182374</v>
+        <v>0.41193160000000001</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="5"/>
-        <v>-8.0712275E-2</v>
+        <v>-5.325599999999997E-2</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="19"/>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
+        <v>-14.868182325299898</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0.3182374</v>
+      </c>
+      <c r="K21" s="18">
+        <v>-8.0712275E-2</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="22">
         <v>-10.248151958818992</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="3.5" customHeight="1">
+    <row r="22" spans="2:29" ht="3.5" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="23"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="2:8" ht="13.75" customHeight="1" thickBot="1">
+      <c r="I22" s="5"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="2:29" ht="13.75" customHeight="1" thickBot="1">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1105,61 +1393,1142 @@
       <c r="D23" s="25"/>
       <c r="E23" s="26">
         <f>SUM(E4:E21)</f>
-        <v>6.5635546999999992</v>
+        <v>6.0442698000000004</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="I23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26">
+        <v>6.5635546999999992</v>
+      </c>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="25" spans="2:29" ht="17" thickBot="1">
+      <c r="I25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="17" thickBot="1">
+      <c r="I26" s="7"/>
+      <c r="J26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="I27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="12">
+        <v>-5.2560083000000004</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="12">
+        <v>-5.8166846999999997</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="12">
+        <v>-5.4244082999999996</v>
+      </c>
+      <c r="U27" s="13"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="12">
+        <v>-4.3598210000000002</v>
+      </c>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="16"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="I28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>-3.1913027999999999</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
+        <f>-J28</f>
+        <v>3.1913027999999999</v>
+      </c>
+      <c r="M28" s="19">
+        <f>L28/$E$23</f>
+        <v>0.52798814506923564</v>
+      </c>
+      <c r="N28" s="20"/>
+      <c r="O28" s="17">
+        <v>-3.0901367</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18">
+        <f>-O28</f>
+        <v>3.0901367</v>
+      </c>
+      <c r="R28" s="19">
+        <f>Q28/$E$23</f>
+        <v>0.51125062286266565</v>
+      </c>
+      <c r="S28" s="20"/>
+      <c r="T28" s="17">
+        <v>-3.3316384000000001</v>
+      </c>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18">
+        <f>-T28</f>
+        <v>3.3316384000000001</v>
+      </c>
+      <c r="W28" s="19">
+        <f>V28/$E$23</f>
+        <v>0.55120610267926817</v>
+      </c>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="17">
+        <v>-2.7705579</v>
+      </c>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18">
+        <f>-Y28</f>
+        <v>2.7705579</v>
+      </c>
+      <c r="AB28" s="19">
+        <f>AA28/$E$23</f>
+        <v>0.45837760253521442</v>
+      </c>
+      <c r="AC28" s="20"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29" s="4"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="20"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18">
+        <f>-SUM($C$7:$C$11)/5</f>
+        <v>0.54251221999999999</v>
+      </c>
+      <c r="L30" s="18">
+        <f>MAX(J30:J34)-MIN(J30:J34)</f>
+        <v>0.99042669999999999</v>
+      </c>
+      <c r="M30" s="19">
+        <f>L30/$E$23</f>
+        <v>0.16386209298598814</v>
+      </c>
+      <c r="N30" s="20"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18">
+        <f>-SUM($C$7:$C$11)/5</f>
+        <v>0.54251221999999999</v>
+      </c>
+      <c r="Q30" s="18">
+        <f>MAX(O30:O34)-MIN(O30:O34)</f>
+        <v>1.0983733999999998</v>
+      </c>
+      <c r="R30" s="19">
+        <f>Q30/$E$23</f>
+        <v>0.18172143804699117</v>
+      </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="18">
+        <f>-SUM($C$7:$C$11)/5</f>
+        <v>0.54251221999999999</v>
+      </c>
+      <c r="V30" s="18">
+        <f>MAX(T30:T34)-MIN(T30:T34)</f>
+        <v>1.2686974</v>
+      </c>
+      <c r="W30" s="19">
+        <f>V30/$E$23</f>
+        <v>0.20990085518684157</v>
+      </c>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="18">
+        <f>-SUM($C$7:$C$11)/5</f>
+        <v>0.54251221999999999</v>
+      </c>
+      <c r="AA30" s="18">
+        <f>MAX(Y30:Y34)-MIN(Y30:Y34)</f>
+        <v>1.0935269000000001</v>
+      </c>
+      <c r="AB30" s="19">
+        <f>AA30/$E$23</f>
+        <v>0.18091960421753508</v>
+      </c>
+      <c r="AC30" s="20"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="I31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="17">
+        <v>-1.1203964</v>
+      </c>
+      <c r="K31" s="18">
+        <f>J31+$D$7</f>
+        <v>-0.57788417999999997</v>
+      </c>
+      <c r="L31" s="21"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="22">
+        <f>(J31/$C$5)*100</f>
+        <v>40.439378653663944</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-1.2685782999999999</v>
+      </c>
+      <c r="P31" s="18">
+        <f>O31+$D$7</f>
+        <v>-0.72606607999999995</v>
+      </c>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="22">
+        <f>(O31/$C$5)*100</f>
+        <v>45.78782850919665</v>
+      </c>
+      <c r="T31" s="17">
+        <v>-1.5157638</v>
+      </c>
+      <c r="U31" s="18">
+        <f>T31+$D$7</f>
+        <v>-0.97325158000000001</v>
+      </c>
+      <c r="V31" s="21"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="22">
+        <f>(T31/$C$5)*100</f>
+        <v>54.709695834185602</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>-1.3719937</v>
+      </c>
+      <c r="Z31" s="18">
+        <f>Y31+$D$7</f>
+        <v>-0.82948147999999999</v>
+      </c>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="22">
+        <f>(Y31/$C$5)*100</f>
+        <v>49.520484664839529</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
-    </row>
-    <row r="33" spans="7:8">
+      <c r="I32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-0.57187220000000005</v>
+      </c>
+      <c r="K32" s="18">
+        <f t="shared" ref="K32:K34" si="6">J32+$D$7</f>
+        <v>-2.9359980000000063E-2</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="22">
+        <f t="shared" ref="N32:N34" si="7">(J32/$C$5)*100</f>
+        <v>20.641048505068241</v>
+      </c>
+      <c r="O32" s="17">
+        <v>-0.72572360000000002</v>
+      </c>
+      <c r="P32" s="18">
+        <f t="shared" ref="P32:P34" si="8">O32+$D$7</f>
+        <v>-0.18321138000000003</v>
+      </c>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="22">
+        <f t="shared" ref="S32:S34" si="9">(O32/$C$5)*100</f>
+        <v>26.194132235965906</v>
+      </c>
+      <c r="T32" s="17">
+        <v>-0.80715219999999999</v>
+      </c>
+      <c r="U32" s="18">
+        <f t="shared" ref="U32:U34" si="10">T32+$D$7</f>
+        <v>-0.26463998</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="22">
+        <f t="shared" ref="X32:X34" si="11">(T32/$C$5)*100</f>
+        <v>29.13320093400683</v>
+      </c>
+      <c r="Y32" s="17">
+        <v>-0.74848930000000002</v>
+      </c>
+      <c r="Z32" s="18">
+        <f t="shared" ref="Z32:Z34" si="12">Y32+$D$7</f>
+        <v>-0.20597708000000003</v>
+      </c>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="22">
+        <f t="shared" ref="AC32:AC34" si="13">(Y32/$C$5)*100</f>
+        <v>27.015833164865459</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="7:8">
+      <c r="I33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="17">
+        <v>-0.26421689999999998</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="6"/>
+        <v>0.27829532000000001</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="22">
+        <f t="shared" si="7"/>
+        <v>9.5365954994118685</v>
+      </c>
+      <c r="O33" s="17">
+        <v>-0.44654719999999998</v>
+      </c>
+      <c r="P33" s="18">
+        <f t="shared" si="8"/>
+        <v>9.5965020000000012E-2</v>
+      </c>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="22">
+        <f t="shared" si="9"/>
+        <v>16.117591334221888</v>
+      </c>
+      <c r="T33" s="17">
+        <v>-0.54837619999999998</v>
+      </c>
+      <c r="U33" s="18">
+        <f t="shared" si="10"/>
+        <v>-5.8639799999999909E-3</v>
+      </c>
+      <c r="V33" s="21"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="22">
+        <f t="shared" si="11"/>
+        <v>19.792988264204837</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>-0.31361129999999998</v>
+      </c>
+      <c r="Z33" s="18">
+        <f t="shared" si="12"/>
+        <v>0.22890092000000001</v>
+      </c>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="22">
+        <f t="shared" si="13"/>
+        <v>11.319427758575266</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="7:8">
+      <c r="I34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="17">
+        <v>-0.12996969999999999</v>
+      </c>
+      <c r="K34" s="18">
+        <f t="shared" si="6"/>
+        <v>0.41254252000000002</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="22">
+        <f t="shared" si="7"/>
+        <v>4.6911021061859053</v>
+      </c>
+      <c r="O34" s="17">
+        <v>-0.17020489999999999</v>
+      </c>
+      <c r="P34" s="18">
+        <f t="shared" si="8"/>
+        <v>0.37230732</v>
+      </c>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="22">
+        <f t="shared" si="9"/>
+        <v>6.1433439091816124</v>
+      </c>
+      <c r="T34" s="17">
+        <v>-0.24706639999999999</v>
+      </c>
+      <c r="U34" s="18">
+        <f t="shared" si="10"/>
+        <v>0.29544581999999997</v>
+      </c>
+      <c r="V34" s="21"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="22">
+        <f t="shared" si="11"/>
+        <v>8.9175685518068395</v>
+      </c>
+      <c r="Y34" s="17">
+        <v>-0.27846680000000001</v>
+      </c>
+      <c r="Z34" s="18">
+        <f t="shared" si="12"/>
+        <v>0.26404541999999998</v>
+      </c>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="22">
+        <f t="shared" si="13"/>
+        <v>10.050928731718619</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
-    </row>
-    <row r="36" spans="7:8">
+      <c r="I35" s="4"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="20"/>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="7:8">
+      <c r="I36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18">
+        <f>-SUM($C$13:$C$16)/4</f>
+        <v>0.92862567500000004</v>
+      </c>
+      <c r="L36" s="18">
+        <f>MAX(J36:J39)-MIN(J36:J39)</f>
+        <v>2.2511323999999999</v>
+      </c>
+      <c r="M36" s="19">
+        <f>L36/$E$23</f>
+        <v>0.37244075372015983</v>
+      </c>
+      <c r="N36" s="20"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="18">
+        <f>-SUM($C$13:$C$16)/4</f>
+        <v>0.92862567500000004</v>
+      </c>
+      <c r="Q36" s="18">
+        <f>MAX(O36:O39)-MIN(O36:O39)</f>
+        <v>2.1245097999999998</v>
+      </c>
+      <c r="R36" s="19">
+        <f>Q36/$E$23</f>
+        <v>0.35149155651523029</v>
+      </c>
+      <c r="S36" s="20"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="18">
+        <f>-SUM($C$13:$C$16)/4</f>
+        <v>0.92862567500000004</v>
+      </c>
+      <c r="V36" s="18">
+        <f>MAX(T36:T39)-MIN(T36:T39)</f>
+        <v>1.6387923999999998</v>
+      </c>
+      <c r="W36" s="19">
+        <f>V36/$E$23</f>
+        <v>0.27113157655536813</v>
+      </c>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="18">
+        <f>-SUM($C$13:$C$16)/4</f>
+        <v>0.92862567500000004</v>
+      </c>
+      <c r="AA36" s="18">
+        <f>MAX(Y36:Y39)-MIN(Y36:Y39)</f>
+        <v>1.6697716000000002</v>
+      </c>
+      <c r="AB36" s="19">
+        <f>AA36/$E$23</f>
+        <v>0.27625695993914767</v>
+      </c>
+      <c r="AC36" s="20"/>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="7:8">
+      <c r="I37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="17">
+        <v>-2.8368145</v>
+      </c>
+      <c r="K37" s="18">
+        <f>J37+$D$13</f>
+        <v>-1.9081888249999999</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="22">
+        <f>(J37/$C$5)*100</f>
+        <v>102.39145336035027</v>
+      </c>
+      <c r="O37" s="17">
+        <v>-2.9117647999999998</v>
+      </c>
+      <c r="P37" s="18">
+        <f>O37+$D$13</f>
+        <v>-1.9831391249999997</v>
+      </c>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="22">
+        <f>(O37/$C$5)*100</f>
+        <v>105.09669550670641</v>
+      </c>
+      <c r="T37" s="17">
+        <v>-2.3190141999999998</v>
+      </c>
+      <c r="U37" s="18">
+        <f>T37+$D$13</f>
+        <v>-1.3903885249999997</v>
+      </c>
+      <c r="V37" s="21"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="22">
+        <f>(T37/$C$5)*100</f>
+        <v>83.702065926866197</v>
+      </c>
+      <c r="Y37" s="17">
+        <v>-2.0580516000000002</v>
+      </c>
+      <c r="Z37" s="18">
+        <f>Y37+$D$13</f>
+        <v>-1.1294259250000001</v>
+      </c>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="22">
+        <f>(Y37/$C$5)*100</f>
+        <v>74.282930524570517</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="7:8">
+      <c r="I38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="17">
+        <v>-1.5494501000000001</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" ref="K38:K39" si="14">J38+$D$13</f>
+        <v>-0.62082442500000001</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="22">
+        <f t="shared" ref="N38:N39" si="15">(J38/$C$5)*100</f>
+        <v>55.925562862266844</v>
+      </c>
+      <c r="O38" s="17">
+        <v>-1.8028934999999999</v>
+      </c>
+      <c r="P38" s="18">
+        <f t="shared" ref="P38:P39" si="16">O38+$D$13</f>
+        <v>-0.87426782499999989</v>
+      </c>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="22">
+        <f t="shared" ref="S38:S39" si="17">(O38/$C$5)*100</f>
+        <v>65.073301662455776</v>
+      </c>
+      <c r="T38" s="17">
+        <v>-1.436131</v>
+      </c>
+      <c r="U38" s="18">
+        <f t="shared" ref="U38:U39" si="18">T38+$D$13</f>
+        <v>-0.50750532500000001</v>
+      </c>
+      <c r="V38" s="21"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="22">
+        <f t="shared" ref="X38:X39" si="19">(T38/$C$5)*100</f>
+        <v>51.835444406341416</v>
+      </c>
+      <c r="Y38" s="17">
+        <v>-1.2681711</v>
+      </c>
+      <c r="Z38" s="18">
+        <f t="shared" ref="Z38:Z39" si="20">Y38+$D$13</f>
+        <v>-0.33954542499999996</v>
+      </c>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="22">
+        <f t="shared" ref="AC38:AC39" si="21">(Y38/$C$5)*100</f>
+        <v>45.773131108359081</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="7:8">
+      <c r="I39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="17">
+        <v>-0.58568209999999998</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="shared" si="14"/>
+        <v>0.34294357500000006</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="22">
+        <f t="shared" si="15"/>
+        <v>21.139500459456197</v>
+      </c>
+      <c r="O39" s="17">
+        <v>-0.78725500000000004</v>
+      </c>
+      <c r="P39" s="18">
+        <f t="shared" si="16"/>
+        <v>0.141370675</v>
+      </c>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="22">
+        <f t="shared" si="17"/>
+        <v>28.415035108993752</v>
+      </c>
+      <c r="T39" s="17">
+        <v>-0.68022179999999999</v>
+      </c>
+      <c r="U39" s="18">
+        <f t="shared" si="18"/>
+        <v>0.24840387500000005</v>
+      </c>
+      <c r="V39" s="21"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="22">
+        <f t="shared" si="19"/>
+        <v>24.551798755044967</v>
+      </c>
+      <c r="Y39" s="17">
+        <v>-0.38828000000000001</v>
+      </c>
+      <c r="Z39" s="18">
+        <f t="shared" si="20"/>
+        <v>0.54034567499999997</v>
+      </c>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="22">
+        <f t="shared" si="21"/>
+        <v>14.014505887063397</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="20"/>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="I41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18">
+        <f>-SUM($C$18:$C$21)/4</f>
+        <v>-0.46518759999999998</v>
+      </c>
+      <c r="L41" s="18">
+        <f>MAX(J41:J44)-MIN(J41:J44)</f>
+        <v>0.47057099999999996</v>
+      </c>
+      <c r="M41" s="19">
+        <f>L41/$E$23</f>
+        <v>7.7854069320333771E-2</v>
+      </c>
+      <c r="N41" s="20"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="18">
+        <f>-SUM($C$18:$C$21)/4</f>
+        <v>-0.46518759999999998</v>
+      </c>
+      <c r="Q41" s="18">
+        <f>MAX(O41:O44)-MIN(O41:O44)</f>
+        <v>0.34158079999999996</v>
+      </c>
+      <c r="R41" s="19">
+        <f>Q41/$E$23</f>
+        <v>5.6513162268170082E-2</v>
+      </c>
+      <c r="S41" s="20"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="18">
+        <f>-SUM($C$18:$C$21)/4</f>
+        <v>-0.46518759999999998</v>
+      </c>
+      <c r="V41" s="18">
+        <f>MAX(T41:T44)-MIN(T41:T44)</f>
+        <v>0.49577399999999999</v>
+      </c>
+      <c r="W41" s="19">
+        <f>V41/$E$23</f>
+        <v>8.202380376865373E-2</v>
+      </c>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="18">
+        <f>-SUM($C$18:$C$21)/4</f>
+        <v>-0.46518759999999998</v>
+      </c>
+      <c r="AA41" s="18">
+        <f>MAX(Y41:Y44)-MIN(Y41:Y44)</f>
+        <v>0.51041340000000002</v>
+      </c>
+      <c r="AB41" s="19">
+        <f>AA41/$E$23</f>
+        <v>8.4445833308102819E-2</v>
+      </c>
+      <c r="AC41" s="20"/>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="I42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="17">
+        <v>0.71616599999999997</v>
+      </c>
+      <c r="K42" s="18">
+        <f>J42+$D$18</f>
+        <v>0.25097839999999999</v>
+      </c>
+      <c r="L42" s="21"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="22">
+        <f t="shared" ref="N42:N44" si="22">(J42/$C$5)*100</f>
+        <v>-25.849162004519016</v>
+      </c>
+      <c r="O42" s="17">
+        <v>0.63534219999999997</v>
+      </c>
+      <c r="P42" s="18">
+        <f>O42+$D$18</f>
+        <v>0.17015459999999999</v>
+      </c>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="22">
+        <f t="shared" ref="S42:S44" si="23">(O42/$C$5)*100</f>
+        <v>-22.931922844853737</v>
+      </c>
+      <c r="T42" s="17">
+        <v>0.84098620000000002</v>
+      </c>
+      <c r="U42" s="18">
+        <f>T42+$D$18</f>
+        <v>0.37579860000000004</v>
+      </c>
+      <c r="V42" s="21"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="22">
+        <f t="shared" ref="X42:X44" si="24">(T42/$C$5)*100</f>
+        <v>-30.354399018334899</v>
+      </c>
+      <c r="Y42" s="17">
+        <v>0.92234499999999997</v>
+      </c>
+      <c r="Z42" s="18">
+        <f>Y42+$D$18</f>
+        <v>0.45715739999999999</v>
+      </c>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="22">
+        <f t="shared" ref="AC42:AC44" si="25">(Y42/$C$5)*100</f>
+        <v>-33.290948368196887</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="I43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="17">
+        <v>0.62534369999999995</v>
+      </c>
+      <c r="K43" s="18">
+        <f t="shared" ref="K43:K44" si="26">J43+$D$18</f>
+        <v>0.16015609999999997</v>
+      </c>
+      <c r="L43" s="21"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="22">
+        <f t="shared" si="22"/>
+        <v>-22.571038851055953</v>
+      </c>
+      <c r="O43" s="17">
+        <v>0.44741150000000002</v>
+      </c>
+      <c r="P43" s="18">
+        <f t="shared" ref="P43:P44" si="27">O43+$D$18</f>
+        <v>-1.7776099999999961E-2</v>
+      </c>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="22">
+        <f t="shared" si="23"/>
+        <v>-16.148787217188278</v>
+      </c>
+      <c r="T43" s="17">
+        <v>0.56959970000000004</v>
+      </c>
+      <c r="U43" s="18">
+        <f t="shared" ref="U43:U44" si="28">T43+$D$18</f>
+        <v>0.10441210000000006</v>
+      </c>
+      <c r="V43" s="21"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="22">
+        <f t="shared" si="24"/>
+        <v>-20.559025313999033</v>
+      </c>
+      <c r="Y43" s="17">
+        <v>0.52647379999999999</v>
+      </c>
+      <c r="Z43" s="18">
+        <f t="shared" ref="Z43:Z44" si="29">Y43+$D$18</f>
+        <v>6.1286200000000013E-2</v>
+      </c>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="22">
+        <f t="shared" si="25"/>
+        <v>-19.002447124458218</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0.24559500000000001</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" si="26"/>
+        <v>-0.21959259999999997</v>
+      </c>
+      <c r="L44" s="21"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="22">
+        <f t="shared" si="22"/>
+        <v>-8.864460114693868</v>
+      </c>
+      <c r="O44" s="17">
+        <v>0.29376140000000001</v>
+      </c>
+      <c r="P44" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.17142619999999997</v>
+      </c>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="22">
+        <f t="shared" si="23"/>
+        <v>-10.60296917093846</v>
+      </c>
+      <c r="T44" s="17">
+        <v>0.34521220000000002</v>
+      </c>
+      <c r="U44" s="18">
+        <f t="shared" si="28"/>
+        <v>-0.11997539999999995</v>
+      </c>
+      <c r="V44" s="21"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="22">
+        <f t="shared" si="24"/>
+        <v>-12.460024748084132</v>
+      </c>
+      <c r="Y44" s="17">
+        <v>0.41193160000000001</v>
+      </c>
+      <c r="Z44" s="18">
+        <f t="shared" si="29"/>
+        <v>-5.325599999999997E-2</v>
+      </c>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="22">
+        <f t="shared" si="25"/>
+        <v>-14.868182325299898</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="I45" s="5"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="20"/>
+    </row>
+    <row r="46" spans="2:29" ht="17" thickBot="1">
+      <c r="I46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26">
+        <f>SUM(L27:L44)</f>
+        <v>6.9034328999999985</v>
+      </c>
+      <c r="M46" s="27"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="26">
+        <f>SUM(Q27:Q44)</f>
+        <v>6.6546007000000005</v>
+      </c>
+      <c r="R46" s="27"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="26">
+        <f>SUM(V27:V44)</f>
+        <v>6.7349021999999996</v>
+      </c>
+      <c r="W46" s="27"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="26">
+        <f>SUM(AA27:AA44)</f>
+        <v>6.0442698000000004</v>
+      </c>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF941B5-C7B0-4E42-AC3C-A894BF4315DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SWP4/PartWorth.xlsx
+++ b/SWP4/PartWorth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raviky/Documents/GitHub/CACI/SWP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAB88C-2C22-5A48-A001-07CAE7283AC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E19798-EC87-6B4F-B1C7-39B20C69B51C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
   </bookViews>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558000EC-1A20-3A40-83F1-887AB2A2E4F4}">
   <dimension ref="B2:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="H20" zoomScale="125" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -797,7 +797,7 @@
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -1531,12 +1531,10 @@
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18">
-        <f>-J28</f>
         <v>3.1913027999999999</v>
       </c>
       <c r="M28" s="19">
-        <f>L28/$E$23</f>
-        <v>0.52798814506923564</v>
+        <v>0.46227765898905177</v>
       </c>
       <c r="N28" s="20"/>
       <c r="O28" s="17">
@@ -1544,12 +1542,10 @@
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18">
-        <f>-O28</f>
         <v>3.0901367</v>
       </c>
       <c r="R28" s="19">
-        <f>Q28/$E$23</f>
-        <v>0.51125062286266565</v>
+        <v>0.46436094956080531</v>
       </c>
       <c r="S28" s="20"/>
       <c r="T28" s="17">
@@ -1557,12 +1553,10 @@
       </c>
       <c r="U28" s="18"/>
       <c r="V28" s="18">
-        <f>-T28</f>
         <v>3.3316384000000001</v>
       </c>
       <c r="W28" s="19">
-        <f>V28/$E$23</f>
-        <v>0.55120610267926817</v>
+        <v>0.49468252115078976</v>
       </c>
       <c r="X28" s="20"/>
       <c r="Y28" s="17">
@@ -1570,11 +1564,9 @@
       </c>
       <c r="Z28" s="18"/>
       <c r="AA28" s="18">
-        <f>-Y28</f>
         <v>2.7705579</v>
       </c>
       <c r="AB28" s="19">
-        <f>AA28/$E$23</f>
         <v>0.45837760253521442</v>
       </c>
       <c r="AC28" s="20"/>
@@ -1616,57 +1608,45 @@
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="18">
-        <f>-SUM($C$7:$C$11)/5</f>
-        <v>0.54251221999999999</v>
+        <v>0.41729104</v>
       </c>
       <c r="L30" s="18">
-        <f>MAX(J30:J34)-MIN(J30:J34)</f>
         <v>0.99042669999999999</v>
       </c>
       <c r="M30" s="19">
-        <f>L30/$E$23</f>
-        <v>0.16386209298598814</v>
+        <v>0.14346872264087629</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="17"/>
       <c r="P30" s="18">
-        <f>-SUM($C$7:$C$11)/5</f>
-        <v>0.54251221999999999</v>
+        <v>0.52221079999999998</v>
       </c>
       <c r="Q30" s="18">
-        <f>MAX(O30:O34)-MIN(O30:O34)</f>
         <v>1.0983733999999998</v>
       </c>
       <c r="R30" s="19">
-        <f>Q30/$E$23</f>
-        <v>0.18172143804699117</v>
+        <v>0.16505474175182289</v>
       </c>
       <c r="S30" s="20"/>
       <c r="T30" s="17"/>
       <c r="U30" s="18">
-        <f>-SUM($C$7:$C$11)/5</f>
-        <v>0.54251221999999999</v>
+        <v>0.62367172000000004</v>
       </c>
       <c r="V30" s="18">
-        <f>MAX(T30:T34)-MIN(T30:T34)</f>
         <v>1.2686974</v>
       </c>
       <c r="W30" s="19">
-        <f>V30/$E$23</f>
-        <v>0.20990085518684157</v>
+        <v>0.18837651421278248</v>
       </c>
       <c r="X30" s="20"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="18">
-        <f>-SUM($C$7:$C$11)/5</f>
         <v>0.54251221999999999</v>
       </c>
       <c r="AA30" s="18">
-        <f>MAX(Y30:Y34)-MIN(Y30:Y34)</f>
         <v>1.0935269000000001</v>
       </c>
       <c r="AB30" s="19">
-        <f>AA30/$E$23</f>
         <v>0.18091960421753508</v>
       </c>
       <c r="AC30" s="20"/>
@@ -1683,52 +1663,44 @@
         <v>-1.1203964</v>
       </c>
       <c r="K31" s="18">
-        <f>J31+$D$7</f>
-        <v>-0.57788417999999997</v>
+        <v>-0.7031053599999999</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="19"/>
       <c r="N31" s="22">
-        <f>(J31/$C$5)*100</f>
-        <v>40.439378653663944</v>
+        <v>35.107806128581721</v>
       </c>
       <c r="O31" s="17">
         <v>-1.2685782999999999</v>
       </c>
       <c r="P31" s="18">
-        <f>O31+$D$7</f>
-        <v>-0.72606607999999995</v>
+        <v>-0.74636749999999996</v>
       </c>
       <c r="Q31" s="21"/>
       <c r="R31" s="19"/>
       <c r="S31" s="22">
-        <f>(O31/$C$5)*100</f>
-        <v>45.78782850919665</v>
+        <v>41.052497774613009</v>
       </c>
       <c r="T31" s="17">
         <v>-1.5157638</v>
       </c>
       <c r="U31" s="18">
-        <f>T31+$D$7</f>
-        <v>-0.97325158000000001</v>
+        <v>-0.89209207999999995</v>
       </c>
       <c r="V31" s="21"/>
       <c r="W31" s="19"/>
       <c r="X31" s="22">
-        <f>(T31/$C$5)*100</f>
-        <v>54.709695834185602</v>
+        <v>45.496047830400798</v>
       </c>
       <c r="Y31" s="17">
         <v>-1.3719937</v>
       </c>
       <c r="Z31" s="18">
-        <f>Y31+$D$7</f>
         <v>-0.82948147999999999</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="19"/>
       <c r="AC31" s="22">
-        <f>(Y31/$C$5)*100</f>
         <v>49.520484664839529</v>
       </c>
     </row>
@@ -1744,52 +1716,44 @@
         <v>-0.57187220000000005</v>
       </c>
       <c r="K32" s="18">
-        <f t="shared" ref="K32:K34" si="6">J32+$D$7</f>
-        <v>-2.9359980000000063E-2</v>
+        <v>-0.15458116000000005</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="19"/>
       <c r="N32" s="22">
-        <f t="shared" ref="N32:N34" si="7">(J32/$C$5)*100</f>
-        <v>20.641048505068241</v>
+        <v>17.919709781221641</v>
       </c>
       <c r="O32" s="17">
         <v>-0.72572360000000002</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" ref="P32:P34" si="8">O32+$D$7</f>
-        <v>-0.18321138000000003</v>
+        <v>-0.20351280000000005</v>
       </c>
       <c r="Q32" s="21"/>
       <c r="R32" s="19"/>
       <c r="S32" s="22">
-        <f t="shared" ref="S32:S34" si="9">(O32/$C$5)*100</f>
-        <v>26.194132235965906</v>
+        <v>23.485161675857253</v>
       </c>
       <c r="T32" s="17">
         <v>-0.80715219999999999</v>
       </c>
       <c r="U32" s="18">
-        <f t="shared" ref="U32:U34" si="10">T32+$D$7</f>
-        <v>-0.26463998</v>
+        <v>-0.18348047999999995</v>
       </c>
       <c r="V32" s="21"/>
       <c r="W32" s="19"/>
       <c r="X32" s="22">
-        <f t="shared" ref="X32:X34" si="11">(T32/$C$5)*100</f>
-        <v>29.13320093400683</v>
+        <v>24.226884886427051</v>
       </c>
       <c r="Y32" s="17">
         <v>-0.74848930000000002</v>
       </c>
       <c r="Z32" s="18">
-        <f t="shared" ref="Z32:Z34" si="12">Y32+$D$7</f>
         <v>-0.20597708000000003</v>
       </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="19"/>
       <c r="AC32" s="22">
-        <f t="shared" ref="AC32:AC34" si="13">(Y32/$C$5)*100</f>
         <v>27.015833164865459</v>
       </c>
     </row>
@@ -1805,52 +1769,44 @@
         <v>-0.26421689999999998</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="6"/>
-        <v>0.27829532000000001</v>
+        <v>0.15307414000000003</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="19"/>
       <c r="N33" s="22">
-        <f t="shared" si="7"/>
-        <v>9.5365954994118685</v>
+        <v>8.279280173601828</v>
       </c>
       <c r="O33" s="17">
         <v>-0.44654719999999998</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" si="8"/>
-        <v>9.5965020000000012E-2</v>
+        <v>7.5663599999999998E-2</v>
       </c>
       <c r="Q33" s="21"/>
       <c r="R33" s="19"/>
       <c r="S33" s="22">
-        <f t="shared" si="9"/>
-        <v>16.117591334221888</v>
+        <v>14.450726403139383</v>
       </c>
       <c r="T33" s="17">
         <v>-0.54837619999999998</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="10"/>
-        <v>-5.8639799999999909E-3</v>
+        <v>7.529552000000006E-2</v>
       </c>
       <c r="V33" s="21"/>
       <c r="W33" s="19"/>
       <c r="X33" s="22">
-        <f t="shared" si="11"/>
-        <v>19.792988264204837</v>
+        <v>16.459655405580627</v>
       </c>
       <c r="Y33" s="17">
         <v>-0.31361129999999998</v>
       </c>
       <c r="Z33" s="18">
-        <f t="shared" si="12"/>
         <v>0.22890092000000001</v>
       </c>
       <c r="AA33" s="21"/>
       <c r="AB33" s="19"/>
       <c r="AC33" s="22">
-        <f t="shared" si="13"/>
         <v>11.319427758575266</v>
       </c>
     </row>
@@ -1866,52 +1822,44 @@
         <v>-0.12996969999999999</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" si="6"/>
-        <v>0.41254252000000002</v>
+        <v>0.28732133999999998</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="19"/>
       <c r="N34" s="22">
-        <f t="shared" si="7"/>
-        <v>4.6911021061859053</v>
+        <v>4.0726220025251125</v>
       </c>
       <c r="O34" s="17">
         <v>-0.17020489999999999</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" si="8"/>
-        <v>0.37230732</v>
+        <v>0.35200589999999998</v>
       </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="19"/>
       <c r="S34" s="22">
-        <f t="shared" si="9"/>
-        <v>6.1433439091816124</v>
+        <v>5.5080055196263649</v>
       </c>
       <c r="T34" s="17">
         <v>-0.24706639999999999</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="10"/>
-        <v>0.29544581999999997</v>
+        <v>0.37660532000000002</v>
       </c>
       <c r="V34" s="21"/>
       <c r="W34" s="19"/>
       <c r="X34" s="22">
-        <f t="shared" si="11"/>
-        <v>8.9175685518068395</v>
+        <v>7.4157627670517892</v>
       </c>
       <c r="Y34" s="17">
         <v>-0.27846680000000001</v>
       </c>
       <c r="Z34" s="18">
-        <f t="shared" si="12"/>
         <v>0.26404541999999998</v>
       </c>
       <c r="AA34" s="21"/>
       <c r="AB34" s="19"/>
       <c r="AC34" s="22">
-        <f t="shared" si="13"/>
         <v>10.050928731718619</v>
       </c>
     </row>
@@ -1952,57 +1900,45 @@
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="18">
-        <f>-SUM($C$13:$C$16)/4</f>
-        <v>0.92862567500000004</v>
+        <v>1.242986675</v>
       </c>
       <c r="L36" s="18">
-        <f>MAX(J36:J39)-MIN(J36:J39)</f>
         <v>2.2511323999999999</v>
       </c>
       <c r="M36" s="19">
-        <f>L36/$E$23</f>
-        <v>0.37244075372015983</v>
+        <v>0.32608883617888146</v>
       </c>
       <c r="N36" s="20"/>
       <c r="O36" s="17"/>
       <c r="P36" s="18">
-        <f>-SUM($C$13:$C$16)/4</f>
-        <v>0.92862567500000004</v>
+        <v>1.375478325</v>
       </c>
       <c r="Q36" s="18">
-        <f>MAX(O36:O39)-MIN(O36:O39)</f>
         <v>2.1245097999999998</v>
       </c>
       <c r="R36" s="19">
-        <f>Q36/$E$23</f>
-        <v>0.35149155651523029</v>
+        <v>0.31925428673729433</v>
       </c>
       <c r="S36" s="20"/>
       <c r="T36" s="17"/>
       <c r="U36" s="18">
-        <f>-SUM($C$13:$C$16)/4</f>
-        <v>0.92862567500000004</v>
+        <v>1.1088417499999998</v>
       </c>
       <c r="V36" s="18">
-        <f>MAX(T36:T39)-MIN(T36:T39)</f>
         <v>1.6387923999999998</v>
       </c>
       <c r="W36" s="19">
-        <f>V36/$E$23</f>
-        <v>0.27113157655536813</v>
+        <v>0.24332831440373401</v>
       </c>
       <c r="X36" s="20"/>
       <c r="Y36" s="17"/>
       <c r="Z36" s="18">
-        <f>-SUM($C$13:$C$16)/4</f>
         <v>0.92862567500000004</v>
       </c>
       <c r="AA36" s="18">
-        <f>MAX(Y36:Y39)-MIN(Y36:Y39)</f>
         <v>1.6697716000000002</v>
       </c>
       <c r="AB36" s="19">
-        <f>AA36/$E$23</f>
         <v>0.27625695993914767</v>
       </c>
       <c r="AC36" s="20"/>
@@ -2019,52 +1955,44 @@
         <v>-2.8368145</v>
       </c>
       <c r="K37" s="18">
-        <f>J37+$D$13</f>
-        <v>-1.9081888249999999</v>
+        <v>-1.593827825</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="19"/>
       <c r="N37" s="22">
-        <f>(J37/$C$5)*100</f>
-        <v>102.39145336035027</v>
+        <v>88.892050607043629</v>
       </c>
       <c r="O37" s="17">
         <v>-2.9117647999999998</v>
       </c>
       <c r="P37" s="18">
-        <f>O37+$D$13</f>
-        <v>-1.9831391249999997</v>
+        <v>-1.5362864749999998</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="19"/>
       <c r="S37" s="22">
-        <f>(O37/$C$5)*100</f>
-        <v>105.09669550670641</v>
+        <v>94.227701965417893</v>
       </c>
       <c r="T37" s="17">
         <v>-2.3190141999999998</v>
       </c>
       <c r="U37" s="18">
-        <f>T37+$D$13</f>
-        <v>-1.3903885249999997</v>
+        <v>-1.21017245</v>
       </c>
       <c r="V37" s="21"/>
       <c r="W37" s="19"/>
       <c r="X37" s="22">
-        <f>(T37/$C$5)*100</f>
-        <v>83.702065926866197</v>
+        <v>69.60581916692999</v>
       </c>
       <c r="Y37" s="17">
         <v>-2.0580516000000002</v>
       </c>
       <c r="Z37" s="18">
-        <f>Y37+$D$13</f>
         <v>-1.1294259250000001</v>
       </c>
       <c r="AA37" s="21"/>
       <c r="AB37" s="19"/>
       <c r="AC37" s="22">
-        <f>(Y37/$C$5)*100</f>
         <v>74.282930524570517</v>
       </c>
     </row>
@@ -2080,52 +2008,44 @@
         <v>-1.5494501000000001</v>
       </c>
       <c r="K38" s="18">
-        <f t="shared" ref="K38:K39" si="14">J38+$D$13</f>
-        <v>-0.62082442500000001</v>
+        <v>-0.30646342500000001</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="19"/>
       <c r="N38" s="22">
-        <f t="shared" ref="N38:N39" si="15">(J38/$C$5)*100</f>
-        <v>55.925562862266844</v>
+        <v>48.552274638432934</v>
       </c>
       <c r="O38" s="17">
         <v>-1.8028934999999999</v>
       </c>
       <c r="P38" s="18">
-        <f t="shared" ref="P38:P39" si="16">O38+$D$13</f>
-        <v>-0.87426782499999989</v>
+        <v>-0.42741517499999993</v>
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="19"/>
       <c r="S38" s="22">
-        <f t="shared" ref="S38:S39" si="17">(O38/$C$5)*100</f>
-        <v>65.073301662455776</v>
+        <v>58.343486875515893</v>
       </c>
       <c r="T38" s="17">
         <v>-1.436131</v>
       </c>
       <c r="U38" s="18">
-        <f t="shared" ref="U38:U39" si="18">T38+$D$13</f>
-        <v>-0.50750532500000001</v>
+        <v>-0.3272892500000002</v>
       </c>
       <c r="V38" s="21"/>
       <c r="W38" s="19"/>
       <c r="X38" s="22">
-        <f t="shared" ref="X38:X39" si="19">(T38/$C$5)*100</f>
-        <v>51.835444406341416</v>
+        <v>43.105848461825872</v>
       </c>
       <c r="Y38" s="17">
         <v>-1.2681711</v>
       </c>
       <c r="Z38" s="18">
-        <f t="shared" ref="Z38:Z39" si="20">Y38+$D$13</f>
         <v>-0.33954542499999996</v>
       </c>
       <c r="AA38" s="21"/>
       <c r="AB38" s="19"/>
       <c r="AC38" s="22">
-        <f t="shared" ref="AC38:AC39" si="21">(Y38/$C$5)*100</f>
         <v>45.773131108359081</v>
       </c>
     </row>
@@ -2141,52 +2061,44 @@
         <v>-0.58568209999999998</v>
       </c>
       <c r="K39" s="18">
-        <f t="shared" si="14"/>
-        <v>0.34294357500000006</v>
+        <v>0.65730457500000006</v>
       </c>
       <c r="L39" s="21"/>
       <c r="M39" s="19"/>
       <c r="N39" s="22">
-        <f t="shared" si="15"/>
-        <v>21.139500459456197</v>
+        <v>18.352445277207792</v>
       </c>
       <c r="O39" s="17">
         <v>-0.78725500000000004</v>
       </c>
       <c r="P39" s="18">
-        <f t="shared" si="16"/>
-        <v>0.141370675</v>
+        <v>0.58822332499999996</v>
       </c>
       <c r="Q39" s="21"/>
       <c r="R39" s="19"/>
       <c r="S39" s="22">
-        <f t="shared" si="17"/>
-        <v>28.415035108993752</v>
+        <v>25.476381028709831</v>
       </c>
       <c r="T39" s="17">
         <v>-0.68022179999999999</v>
       </c>
       <c r="U39" s="18">
-        <f t="shared" si="18"/>
-        <v>0.24840387500000005</v>
+        <v>0.42861994999999986</v>
       </c>
       <c r="V39" s="21"/>
       <c r="W39" s="19"/>
       <c r="X39" s="22">
-        <f t="shared" si="19"/>
-        <v>24.551798755044967</v>
+        <v>20.417035654289492</v>
       </c>
       <c r="Y39" s="17">
         <v>-0.38828000000000001</v>
       </c>
       <c r="Z39" s="18">
-        <f t="shared" si="20"/>
         <v>0.54034567499999997</v>
       </c>
       <c r="AA39" s="21"/>
       <c r="AB39" s="19"/>
       <c r="AC39" s="22">
-        <f t="shared" si="21"/>
         <v>14.014505887063397</v>
       </c>
     </row>
@@ -2225,57 +2137,45 @@
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="18">
-        <f>-SUM($C$18:$C$21)/4</f>
-        <v>-0.46518759999999998</v>
+        <v>-0.39677617500000001</v>
       </c>
       <c r="L41" s="18">
-        <f>MAX(J41:J44)-MIN(J41:J44)</f>
         <v>0.47057099999999996</v>
       </c>
       <c r="M41" s="19">
-        <f>L41/$E$23</f>
-        <v>7.7854069320333771E-2</v>
+        <v>6.8164782191190709E-2</v>
       </c>
       <c r="N41" s="20"/>
       <c r="O41" s="17"/>
       <c r="P41" s="18">
-        <f>-SUM($C$18:$C$21)/4</f>
-        <v>-0.46518759999999998</v>
+        <v>-0.344128775</v>
       </c>
       <c r="Q41" s="18">
-        <f>MAX(O41:O44)-MIN(O41:O44)</f>
         <v>0.34158079999999996</v>
       </c>
       <c r="R41" s="19">
-        <f>Q41/$E$23</f>
-        <v>5.6513162268170082E-2</v>
+        <v>5.1330021950077326E-2</v>
       </c>
       <c r="S41" s="20"/>
       <c r="T41" s="17"/>
       <c r="U41" s="18">
-        <f>-SUM($C$18:$C$21)/4</f>
-        <v>-0.46518759999999998</v>
+        <v>-0.43894952500000001</v>
       </c>
       <c r="V41" s="18">
-        <f>MAX(T41:T44)-MIN(T41:T44)</f>
         <v>0.49577399999999999</v>
       </c>
       <c r="W41" s="19">
-        <f>V41/$E$23</f>
-        <v>8.202380376865373E-2</v>
+        <v>7.361265023269381E-2</v>
       </c>
       <c r="X41" s="20"/>
       <c r="Y41" s="17"/>
       <c r="Z41" s="18">
-        <f>-SUM($C$18:$C$21)/4</f>
         <v>-0.46518759999999998</v>
       </c>
       <c r="AA41" s="18">
-        <f>MAX(Y41:Y44)-MIN(Y41:Y44)</f>
         <v>0.51041340000000002</v>
       </c>
       <c r="AB41" s="19">
-        <f>AA41/$E$23</f>
         <v>8.4445833308102819E-2</v>
       </c>
       <c r="AC41" s="20"/>
@@ -2290,52 +2190,44 @@
         <v>0.71616599999999997</v>
       </c>
       <c r="K42" s="18">
-        <f>J42+$D$18</f>
-        <v>0.25097839999999999</v>
+        <v>0.31938982499999996</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="19"/>
       <c r="N42" s="22">
-        <f t="shared" ref="N42:N44" si="22">(J42/$C$5)*100</f>
-        <v>-25.849162004519016</v>
+        <v>-22.441179821607651</v>
       </c>
       <c r="O42" s="17">
         <v>0.63534219999999997</v>
       </c>
       <c r="P42" s="18">
-        <f>O42+$D$18</f>
-        <v>0.17015459999999999</v>
+        <v>0.29121342499999997</v>
       </c>
       <c r="Q42" s="21"/>
       <c r="R42" s="19"/>
       <c r="S42" s="22">
-        <f t="shared" ref="S42:S44" si="23">(O42/$C$5)*100</f>
-        <v>-22.931922844853737</v>
+        <v>-20.560326667749035</v>
       </c>
       <c r="T42" s="17">
         <v>0.84098620000000002</v>
       </c>
       <c r="U42" s="18">
-        <f>T42+$D$18</f>
-        <v>0.37579860000000004</v>
+        <v>0.40203667500000001</v>
       </c>
       <c r="V42" s="21"/>
       <c r="W42" s="19"/>
       <c r="X42" s="22">
-        <f t="shared" ref="X42:X44" si="24">(T42/$C$5)*100</f>
-        <v>-30.354399018334899</v>
+        <v>-25.242421266365522</v>
       </c>
       <c r="Y42" s="17">
         <v>0.92234499999999997</v>
       </c>
       <c r="Z42" s="18">
-        <f>Y42+$D$18</f>
         <v>0.45715739999999999</v>
       </c>
       <c r="AA42" s="21"/>
       <c r="AB42" s="19"/>
       <c r="AC42" s="22">
-        <f t="shared" ref="AC42:AC44" si="25">(Y42/$C$5)*100</f>
         <v>-33.290948368196887</v>
       </c>
     </row>
@@ -2349,52 +2241,44 @@
         <v>0.62534369999999995</v>
       </c>
       <c r="K43" s="18">
-        <f t="shared" ref="K43:K44" si="26">J43+$D$18</f>
-        <v>0.16015609999999997</v>
+        <v>0.22856752499999994</v>
       </c>
       <c r="L43" s="21"/>
       <c r="M43" s="19"/>
       <c r="N43" s="22">
-        <f t="shared" si="22"/>
-        <v>-22.571038851055953</v>
+        <v>-19.595248059820584</v>
       </c>
       <c r="O43" s="17">
         <v>0.44741150000000002</v>
       </c>
       <c r="P43" s="18">
-        <f t="shared" ref="P43:P44" si="27">O43+$D$18</f>
-        <v>-1.7776099999999961E-2</v>
+        <v>0.10328272500000002</v>
       </c>
       <c r="Q43" s="21"/>
       <c r="R43" s="19"/>
       <c r="S43" s="22">
-        <f t="shared" si="23"/>
-        <v>-16.148787217188278</v>
+        <v>-14.478696039563557</v>
       </c>
       <c r="T43" s="17">
         <v>0.56959970000000004</v>
       </c>
       <c r="U43" s="18">
-        <f t="shared" ref="U43:U44" si="28">T43+$D$18</f>
-        <v>0.10441210000000006</v>
+        <v>0.13065017500000004</v>
       </c>
       <c r="V43" s="21"/>
       <c r="W43" s="19"/>
       <c r="X43" s="22">
-        <f t="shared" si="24"/>
-        <v>-20.559025313999033</v>
+        <v>-17.096684322044073</v>
       </c>
       <c r="Y43" s="17">
         <v>0.52647379999999999</v>
       </c>
       <c r="Z43" s="18">
-        <f t="shared" ref="Z43:Z44" si="29">Y43+$D$18</f>
         <v>6.1286200000000013E-2</v>
       </c>
       <c r="AA43" s="21"/>
       <c r="AB43" s="19"/>
       <c r="AC43" s="22">
-        <f t="shared" si="25"/>
         <v>-19.002447124458218</v>
       </c>
     </row>
@@ -2406,52 +2290,44 @@
         <v>0.24559500000000001</v>
       </c>
       <c r="K44" s="18">
-        <f t="shared" si="26"/>
-        <v>-0.21959259999999997</v>
+        <v>-0.151181175</v>
       </c>
       <c r="L44" s="21"/>
       <c r="M44" s="19"/>
       <c r="N44" s="22">
-        <f t="shared" si="22"/>
-        <v>-8.864460114693868</v>
+        <v>-7.695759863338572</v>
       </c>
       <c r="O44" s="17">
         <v>0.29376140000000001</v>
       </c>
       <c r="P44" s="18">
-        <f t="shared" si="27"/>
-        <v>-0.17142619999999997</v>
+        <v>-5.0367374999999992E-2</v>
       </c>
       <c r="Q44" s="21"/>
       <c r="R44" s="19"/>
       <c r="S44" s="22">
-        <f t="shared" si="23"/>
-        <v>-10.60296917093846</v>
+        <v>-9.5064208648115791</v>
       </c>
       <c r="T44" s="17">
         <v>0.34521220000000002</v>
       </c>
       <c r="U44" s="18">
-        <f t="shared" si="28"/>
-        <v>-0.11997539999999995</v>
+        <v>-9.3737324999999982E-2</v>
       </c>
       <c r="V44" s="21"/>
       <c r="W44" s="19"/>
       <c r="X44" s="22">
-        <f t="shared" si="24"/>
-        <v>-12.460024748084132</v>
+        <v>-10.361634684004123</v>
       </c>
       <c r="Y44" s="17">
         <v>0.41193160000000001</v>
       </c>
       <c r="Z44" s="18">
-        <f t="shared" si="29"/>
         <v>-5.325599999999997E-2</v>
       </c>
       <c r="AA44" s="21"/>
       <c r="AB44" s="19"/>
       <c r="AC44" s="22">
-        <f t="shared" si="25"/>
         <v>-14.868182325299898</v>
       </c>
     </row>
@@ -2485,7 +2361,6 @@
       <c r="J46" s="24"/>
       <c r="K46" s="25"/>
       <c r="L46" s="26">
-        <f>SUM(L27:L44)</f>
         <v>6.9034328999999985</v>
       </c>
       <c r="M46" s="27"/>
@@ -2493,7 +2368,6 @@
       <c r="O46" s="24"/>
       <c r="P46" s="25"/>
       <c r="Q46" s="26">
-        <f>SUM(Q27:Q44)</f>
         <v>6.6546007000000005</v>
       </c>
       <c r="R46" s="27"/>
@@ -2501,7 +2375,6 @@
       <c r="T46" s="24"/>
       <c r="U46" s="25"/>
       <c r="V46" s="26">
-        <f>SUM(V27:V44)</f>
         <v>6.7349021999999996</v>
       </c>
       <c r="W46" s="27"/>

--- a/SWP4/PartWorth.xlsx
+++ b/SWP4/PartWorth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raviky/Documents/GitHub/CACI/SWP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E19798-EC87-6B4F-B1C7-39B20C69B51C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C2EE95-0D29-C440-A31A-94F00BB9632E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C5C9A1FC-4F9E-394E-8FE7-1CAD8358243C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>price</t>
   </si>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -427,12 +427,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -465,6 +474,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558000EC-1A20-3A40-83F1-887AB2A2E4F4}">
-  <dimension ref="B2:AC46"/>
+  <dimension ref="B2:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" zoomScale="125" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="F48" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -794,15 +807,12 @@
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -822,7 +832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="16.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:14" ht="17" thickBot="1">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -856,7 +866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="13.75" customHeight="1">
+    <row r="4" spans="2:14">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -878,7 +888,7 @@
       <c r="M4" s="15"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="2:14" ht="13.75" customHeight="1">
+    <row r="5" spans="2:14">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -910,7 +920,7 @@
       </c>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="2:14" ht="4.25" customHeight="1">
+    <row r="6" spans="2:14">
       <c r="B6" s="4"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
@@ -924,7 +934,7 @@
       <c r="M6" s="19"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="2:14" ht="13.75" customHeight="1">
+    <row r="7" spans="2:14">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -957,7 +967,7 @@
       </c>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="2:14" ht="13.75" customHeight="1">
+    <row r="8" spans="2:14">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,7 +999,7 @@
         <v>43.012077679720093</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="13.75" customHeight="1">
+    <row r="9" spans="2:14">
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>23.345805497992956</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="13.75" customHeight="1">
+    <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1053,7 +1063,7 @@
         <v>13.636001500652913</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="13.75" customHeight="1">
+    <row r="11" spans="2:14">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>6.6654397379975947</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="4.25" customHeight="1">
+    <row r="12" spans="2:14">
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -1099,7 +1109,7 @@
       <c r="M12" s="19"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="2:14" ht="13.75" customHeight="1">
+    <row r="13" spans="2:14">
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1142,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="2:14" ht="13.75" customHeight="1">
+    <row r="14" spans="2:14">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>81.624859313789415</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="13.75" customHeight="1">
+    <row r="15" spans="2:14">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>49.554966243360177</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="13.75" customHeight="1">
+    <row r="16" spans="2:14">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>20.722921829186411</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="3" customHeight="1">
+    <row r="17" spans="2:29">
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -1242,7 +1252,7 @@
       <c r="M17" s="19"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="2:29" ht="13.75" customHeight="1">
+    <row r="18" spans="2:29">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1285,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="2:29" ht="13.75" customHeight="1">
+    <row r="19" spans="2:29">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>-24.364758486659159</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="13.75" customHeight="1">
+    <row r="20" spans="2:29">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>-16.776359242138078</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="13.75" customHeight="1">
+    <row r="21" spans="2:29">
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>-10.248151958818992</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="3.5" customHeight="1">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="C22" s="23"/>
       <c r="D22" s="21"/>
@@ -1385,7 +1395,7 @@
       <c r="M22" s="19"/>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="2:29" ht="13.75" customHeight="1" thickBot="1">
+    <row r="23" spans="2:29" ht="17" thickBot="1">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -2388,7 +2398,398 @@
       <c r="AB46" s="27"/>
       <c r="AC46" s="28"/>
     </row>
+    <row r="49" spans="9:17" ht="17" thickBot="1">
+      <c r="J49" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="32"/>
+    </row>
+    <row r="50" spans="9:17" ht="17" thickBot="1">
+      <c r="I50" s="7"/>
+      <c r="J50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="9:17">
+      <c r="I51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="9:17">
+      <c r="I52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="19">
+        <v>0.46227765898905177</v>
+      </c>
+      <c r="K52" s="20"/>
+      <c r="L52" s="19">
+        <v>0.46436094956080531</v>
+      </c>
+      <c r="M52" s="20"/>
+      <c r="N52" s="19">
+        <v>0.49468252115078976</v>
+      </c>
+      <c r="O52" s="20"/>
+      <c r="P52" s="19">
+        <v>0.45837760253521442</v>
+      </c>
+      <c r="Q52" s="20"/>
+    </row>
+    <row r="53" spans="9:17">
+      <c r="I53" s="4"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="20"/>
+    </row>
+    <row r="54" spans="9:17">
+      <c r="I54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0.14346872264087629</v>
+      </c>
+      <c r="K54" s="20"/>
+      <c r="L54" s="19">
+        <v>0.16505474175182289</v>
+      </c>
+      <c r="M54" s="20"/>
+      <c r="N54" s="19">
+        <v>0.18837651421278248</v>
+      </c>
+      <c r="O54" s="20"/>
+      <c r="P54" s="19">
+        <v>0.18091960421753508</v>
+      </c>
+      <c r="Q54" s="20"/>
+    </row>
+    <row r="55" spans="9:17">
+      <c r="I55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="22">
+        <v>35.107806128581721</v>
+      </c>
+      <c r="L55" s="19"/>
+      <c r="M55" s="22">
+        <v>41.052497774613009</v>
+      </c>
+      <c r="N55" s="19"/>
+      <c r="O55" s="22">
+        <v>45.496047830400798</v>
+      </c>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="22">
+        <v>49.520484664839529</v>
+      </c>
+    </row>
+    <row r="56" spans="9:17">
+      <c r="I56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="22">
+        <v>17.919709781221641</v>
+      </c>
+      <c r="L56" s="19"/>
+      <c r="M56" s="22">
+        <v>23.485161675857253</v>
+      </c>
+      <c r="N56" s="19"/>
+      <c r="O56" s="22">
+        <v>24.226884886427051</v>
+      </c>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="22">
+        <v>27.015833164865459</v>
+      </c>
+    </row>
+    <row r="57" spans="9:17">
+      <c r="I57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="19"/>
+      <c r="K57" s="22">
+        <v>8.279280173601828</v>
+      </c>
+      <c r="L57" s="19"/>
+      <c r="M57" s="22">
+        <v>14.450726403139383</v>
+      </c>
+      <c r="N57" s="19"/>
+      <c r="O57" s="22">
+        <v>16.459655405580627</v>
+      </c>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="22">
+        <v>11.319427758575266</v>
+      </c>
+    </row>
+    <row r="58" spans="9:17">
+      <c r="I58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="19"/>
+      <c r="K58" s="22">
+        <v>4.0726220025251125</v>
+      </c>
+      <c r="L58" s="19"/>
+      <c r="M58" s="22">
+        <v>5.5080055196263649</v>
+      </c>
+      <c r="N58" s="19"/>
+      <c r="O58" s="22">
+        <v>7.4157627670517892</v>
+      </c>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="22">
+        <v>10.050928731718619</v>
+      </c>
+    </row>
+    <row r="59" spans="9:17">
+      <c r="I59" s="4"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="20"/>
+    </row>
+    <row r="60" spans="9:17">
+      <c r="I60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0.32608883617888146</v>
+      </c>
+      <c r="K60" s="20"/>
+      <c r="L60" s="19">
+        <v>0.31925428673729433</v>
+      </c>
+      <c r="M60" s="20"/>
+      <c r="N60" s="19">
+        <v>0.24332831440373401</v>
+      </c>
+      <c r="O60" s="20"/>
+      <c r="P60" s="19">
+        <v>0.27625695993914767</v>
+      </c>
+      <c r="Q60" s="20"/>
+    </row>
+    <row r="61" spans="9:17">
+      <c r="I61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="19"/>
+      <c r="K61" s="22">
+        <v>88.892050607043629</v>
+      </c>
+      <c r="L61" s="19"/>
+      <c r="M61" s="22">
+        <v>94.227701965417893</v>
+      </c>
+      <c r="N61" s="19"/>
+      <c r="O61" s="22">
+        <v>69.60581916692999</v>
+      </c>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="22">
+        <v>74.282930524570517</v>
+      </c>
+    </row>
+    <row r="62" spans="9:17">
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="19"/>
+      <c r="K62" s="22">
+        <v>48.552274638432934</v>
+      </c>
+      <c r="L62" s="19"/>
+      <c r="M62" s="22">
+        <v>58.343486875515893</v>
+      </c>
+      <c r="N62" s="19"/>
+      <c r="O62" s="22">
+        <v>43.105848461825872</v>
+      </c>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="22">
+        <v>45.773131108359081</v>
+      </c>
+    </row>
+    <row r="63" spans="9:17">
+      <c r="I63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="19"/>
+      <c r="K63" s="22">
+        <v>18.352445277207792</v>
+      </c>
+      <c r="L63" s="19"/>
+      <c r="M63" s="22">
+        <v>25.476381028709831</v>
+      </c>
+      <c r="N63" s="19"/>
+      <c r="O63" s="22">
+        <v>20.417035654289492</v>
+      </c>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="22">
+        <v>14.014505887063397</v>
+      </c>
+    </row>
+    <row r="64" spans="9:17">
+      <c r="I64" s="4"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="20"/>
+    </row>
+    <row r="65" spans="9:17">
+      <c r="I65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="19">
+        <v>6.8164782191190709E-2</v>
+      </c>
+      <c r="K65" s="20"/>
+      <c r="L65" s="19">
+        <v>5.1330021950077326E-2</v>
+      </c>
+      <c r="M65" s="20"/>
+      <c r="N65" s="19">
+        <v>7.361265023269381E-2</v>
+      </c>
+      <c r="O65" s="20"/>
+      <c r="P65" s="19">
+        <v>8.4445833308102819E-2</v>
+      </c>
+      <c r="Q65" s="20"/>
+    </row>
+    <row r="66" spans="9:17">
+      <c r="I66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="19"/>
+      <c r="K66" s="22">
+        <v>-22.441179821607651</v>
+      </c>
+      <c r="L66" s="19"/>
+      <c r="M66" s="22">
+        <v>-20.560326667749035</v>
+      </c>
+      <c r="N66" s="19"/>
+      <c r="O66" s="22">
+        <v>-25.242421266365522</v>
+      </c>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="22">
+        <v>-33.290948368196887</v>
+      </c>
+    </row>
+    <row r="67" spans="9:17">
+      <c r="I67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="19"/>
+      <c r="K67" s="22">
+        <v>-19.595248059820584</v>
+      </c>
+      <c r="L67" s="19"/>
+      <c r="M67" s="22">
+        <v>-14.478696039563557</v>
+      </c>
+      <c r="N67" s="19"/>
+      <c r="O67" s="22">
+        <v>-17.096684322044073</v>
+      </c>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="22">
+        <v>-19.002447124458218</v>
+      </c>
+    </row>
+    <row r="68" spans="9:17" ht="17" thickBot="1">
+      <c r="I68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="27"/>
+      <c r="K68" s="33">
+        <v>-7.695759863338572</v>
+      </c>
+      <c r="L68" s="27"/>
+      <c r="M68" s="33">
+        <v>-9.5064208648115791</v>
+      </c>
+      <c r="N68" s="27"/>
+      <c r="O68" s="33">
+        <v>-10.361634684004123</v>
+      </c>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="33">
+        <v>-14.868182325299898</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
